--- a/evals/동료평가_기말.xlsx
+++ b/evals/동료평가_기말.xlsx
@@ -498,28 +498,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>17.26388888888889</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30.26388888888889</v>
       </c>
     </row>
     <row r="3">
@@ -535,28 +535,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>17.26388888888889</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>35.26388888888889</v>
       </c>
     </row>
     <row r="4">
@@ -572,28 +572,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.26388888888889</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>34.26388888888889</v>
       </c>
     </row>
     <row r="5">
@@ -609,28 +609,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>17.26388888888889</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>33.93055555555556</v>
       </c>
     </row>
     <row r="6">
@@ -646,28 +646,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>16.33333333333333</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>17.26388888888889</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>33.59722222222222</v>
       </c>
     </row>
     <row r="7">
@@ -683,28 +683,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.26388888888889</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>33.26388888888889</v>
       </c>
     </row>
     <row r="8">
@@ -720,28 +720,28 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>16.75</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>31.75</v>
       </c>
     </row>
     <row r="9">
@@ -757,28 +757,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>16.25</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>16.75</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -794,28 +794,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>16.25</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>16.75</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -831,28 +831,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>16.75</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="12">
@@ -868,28 +868,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>16.75</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>29.25</v>
       </c>
     </row>
     <row r="13">
@@ -905,28 +905,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>16.75</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>28.95</v>
       </c>
     </row>
     <row r="14">
@@ -942,28 +942,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>17.63888888888889</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>31.43888888888889</v>
       </c>
     </row>
     <row r="15">
@@ -979,28 +979,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>16.4</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>17.63888888888889</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>34.03888888888889</v>
       </c>
     </row>
     <row r="16">
@@ -1016,28 +1016,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.63888888888889</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>36.38888888888889</v>
       </c>
     </row>
     <row r="17">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>15.25</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>17.63888888888889</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>32.88888888888889</v>
       </c>
     </row>
     <row r="18">
@@ -1090,28 +1090,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>13.75</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>17.63888888888889</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>31.38888888888889</v>
       </c>
     </row>
     <row r="19">
@@ -1127,28 +1127,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>13.75</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>17.63888888888889</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>31.38888888888889</v>
       </c>
     </row>
     <row r="20">
@@ -1164,28 +1164,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>16.94444444444444</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>30.94444444444444</v>
       </c>
     </row>
     <row r="21">
@@ -1201,28 +1201,28 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>16.94444444444444</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>29.19444444444444</v>
       </c>
     </row>
     <row r="22">
@@ -1238,28 +1238,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>16.94444444444444</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>29.54444444444444</v>
       </c>
     </row>
     <row r="23">
@@ -1275,28 +1275,28 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>16.94444444444444</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>27.34444444444444</v>
       </c>
     </row>
     <row r="24">
@@ -1312,28 +1312,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>16.94444444444444</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>32.94444444444444</v>
       </c>
     </row>
     <row r="25">
@@ -1349,28 +1349,28 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>17.08333333333333</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>33.58333333333333</v>
       </c>
     </row>
     <row r="26">
@@ -1386,28 +1386,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>17.08333333333333</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>30.08333333333333</v>
       </c>
     </row>
     <row r="27">
@@ -1423,28 +1423,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>17.08333333333333</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>31.08333333333333</v>
       </c>
     </row>
     <row r="28">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>17.08333333333333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>32.58333333333333</v>
       </c>
     </row>
     <row r="29">
@@ -1497,28 +1497,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -1534,28 +1534,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>33.83333333333333</v>
       </c>
     </row>
     <row r="31">
@@ -1571,28 +1571,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>30.83333333333333</v>
       </c>
     </row>
     <row r="32">
@@ -1608,28 +1608,28 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>14.33333333333333</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>31.66666666666666</v>
       </c>
     </row>
     <row r="33">
@@ -1645,28 +1645,28 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>34.33333333333333</v>
       </c>
     </row>
     <row r="34">
@@ -1682,28 +1682,28 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>27.66666666666666</v>
       </c>
     </row>
     <row r="35">
@@ -1719,28 +1719,28 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>17.06944444444444</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>36.06944444444444</v>
       </c>
     </row>
     <row r="36">
@@ -1756,28 +1756,28 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>17.06944444444444</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>35.56944444444444</v>
       </c>
     </row>
     <row r="37">
@@ -1793,28 +1793,28 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>17.06944444444444</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>33.06944444444444</v>
       </c>
     </row>
     <row r="38">
@@ -1845,13 +1845,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>17.06944444444444</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>17.06944444444444</v>
       </c>
     </row>
     <row r="39">
@@ -1867,28 +1867,28 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>17.06944444444444</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>32.56944444444444</v>
       </c>
     </row>
     <row r="40">
@@ -1904,28 +1904,28 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>17.31944444444444</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>37.31944444444444</v>
       </c>
     </row>
     <row r="41">
@@ -1941,28 +1941,28 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>19.8</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>17.31944444444444</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>37.11944444444444</v>
       </c>
     </row>
     <row r="42">
@@ -1978,28 +1978,28 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>17.31944444444444</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>37.31944444444444</v>
       </c>
     </row>
     <row r="43">
@@ -2015,28 +2015,28 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>17.31944444444444</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>36.98611111111111</v>
       </c>
     </row>
     <row r="44">
@@ -2052,28 +2052,28 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>17.31944444444444</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>36.65277777777777</v>
       </c>
     </row>
     <row r="45">
@@ -2089,28 +2089,28 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>17.18055555555556</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>30.68055555555556</v>
       </c>
     </row>
     <row r="46">
@@ -2126,28 +2126,28 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>17.18055555555556</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>36.51388888888889</v>
       </c>
     </row>
     <row r="47">
@@ -2163,28 +2163,28 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>17.18055555555556</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>28.68055555555556</v>
       </c>
     </row>
     <row r="48">
@@ -2200,28 +2200,28 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>17.18055555555556</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>30.18055555555556</v>
       </c>
     </row>
     <row r="49">
@@ -2237,28 +2237,28 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>14.66666666666667</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>17.18055555555556</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>31.84722222222222</v>
       </c>
     </row>
     <row r="50">
@@ -2274,28 +2274,28 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>17.22222222222222</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>34.22222222222222</v>
       </c>
     </row>
     <row r="51">
@@ -2311,28 +2311,28 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>17.22222222222222</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>36.22222222222222</v>
       </c>
     </row>
     <row r="52">
@@ -2348,28 +2348,28 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>17.22222222222222</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>33.22222222222222</v>
       </c>
     </row>
     <row r="53">
@@ -2385,28 +2385,28 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>16.25</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>17.22222222222222</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>33.47222222222222</v>
       </c>
     </row>
     <row r="54">
@@ -2422,28 +2422,28 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>17.22222222222222</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>33.88888888888889</v>
       </c>
     </row>
     <row r="55">
@@ -2459,28 +2459,28 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>13.75</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>16.59722222222222</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>30.34722222222222</v>
       </c>
     </row>
     <row r="56">
@@ -2496,28 +2496,28 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>15.25</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>16.59722222222222</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>31.84722222222222</v>
       </c>
     </row>
     <row r="57">
@@ -2533,28 +2533,28 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>13.75</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>16.59722222222222</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>30.34722222222222</v>
       </c>
     </row>
     <row r="58">
@@ -2570,28 +2570,28 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>16.59722222222222</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>30.09722222222222</v>
       </c>
     </row>
     <row r="59">
@@ -2607,28 +2607,28 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>16.59722222222222</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>28.84722222222222</v>
       </c>
     </row>
     <row r="60">
@@ -2644,28 +2644,28 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>17.40277777777778</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>37.06944444444444</v>
       </c>
     </row>
     <row r="61">
@@ -2681,28 +2681,28 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>14.66666666666667</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>17.40277777777778</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>32.06944444444444</v>
       </c>
     </row>
     <row r="62">
@@ -2718,28 +2718,28 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>17.40277777777778</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>26.90277777777778</v>
       </c>
     </row>
     <row r="63">
@@ -2755,28 +2755,28 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>17.40277777777778</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>35.73611111111111</v>
       </c>
     </row>
     <row r="64">
@@ -2792,28 +2792,28 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>17.40277777777778</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>19.40277777777778</v>
       </c>
     </row>
     <row r="65">
@@ -2829,28 +2829,28 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>17.66666666666667</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>16.72222222222222</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>34.38888888888889</v>
       </c>
     </row>
     <row r="66">
@@ -2866,28 +2866,28 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>16.72222222222222</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>31.22222222222222</v>
       </c>
     </row>
     <row r="67">
@@ -2903,28 +2903,28 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>18.25</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>16.72222222222222</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>34.97222222222222</v>
       </c>
     </row>
     <row r="68">
@@ -2940,28 +2940,28 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>14.25</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>16.72222222222222</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>30.97222222222222</v>
       </c>
     </row>
     <row r="69">
@@ -2977,28 +2977,28 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>17.25</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>16.72222222222222</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>33.97222222222222</v>
       </c>
     </row>
     <row r="70">
@@ -3014,28 +3014,28 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>17.01388888888889</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>33.01388888888889</v>
       </c>
     </row>
     <row r="71">
@@ -3051,28 +3051,28 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>17.01388888888889</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>32.01388888888889</v>
       </c>
     </row>
     <row r="72">
@@ -3088,28 +3088,28 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>16.25</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>17.01388888888889</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>33.26388888888889</v>
       </c>
     </row>
     <row r="73">
@@ -3125,28 +3125,28 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>17.01388888888889</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>31.51388888888889</v>
       </c>
     </row>
     <row r="74">
@@ -3162,28 +3162,28 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>18.25</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>17.01388888888889</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>35.26388888888889</v>
       </c>
     </row>
     <row r="75">
@@ -3199,28 +3199,28 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>16.44444444444444</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>34.77777777777777</v>
       </c>
     </row>
     <row r="76">
@@ -3236,28 +3236,28 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>16.44444444444444</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>36.44444444444444</v>
       </c>
     </row>
     <row r="77">
@@ -3273,28 +3273,28 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>15.33333333333333</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>16.44444444444444</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>31.77777777777778</v>
       </c>
     </row>
     <row r="78">
@@ -3310,28 +3310,28 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>16.44444444444444</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>32.44444444444444</v>
       </c>
     </row>
     <row r="79">
@@ -3347,28 +3347,28 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>16.44444444444444</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>33.94444444444444</v>
       </c>
     </row>
     <row r="80">
@@ -3384,28 +3384,28 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>17.31944444444444</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>35.98611111111111</v>
       </c>
     </row>
     <row r="81">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>17.25</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>17.31944444444444</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>34.56944444444444</v>
       </c>
     </row>
     <row r="82">
@@ -3458,28 +3458,28 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>17.31944444444444</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>28.31944444444444</v>
       </c>
     </row>
     <row r="83">
@@ -3495,28 +3495,28 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>17.31944444444444</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>35.31944444444444</v>
       </c>
     </row>
     <row r="84">
@@ -3532,28 +3532,28 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>17.31944444444444</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>35.98611111111111</v>
       </c>
     </row>
     <row r="85">
@@ -3569,28 +3569,28 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>17.19444444444444</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>34.69444444444444</v>
       </c>
     </row>
     <row r="86">
@@ -3606,28 +3606,28 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>17.19444444444444</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>30.19444444444444</v>
       </c>
     </row>
     <row r="87">
@@ -3643,28 +3643,28 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>17.19444444444444</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>27.19444444444444</v>
       </c>
     </row>
     <row r="88">
@@ -3680,28 +3680,28 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>17.19444444444444</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>28.19444444444444</v>
       </c>
     </row>
     <row r="89">
@@ -3717,28 +3717,28 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>17.19444444444444</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>31.19444444444444</v>
       </c>
     </row>
   </sheetData>
